--- a/source_plates/221101_arpae_combined_sp_updated.xlsx
+++ b/source_plates/221101_arpae_combined_sp_updated.xlsx
@@ -494,12 +494,12 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>31.2,60.0</t>
+          <t>60,60.0</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>18.0,37.2,</t>
+          <t>24.0,60.0,</t>
         </is>
       </c>
     </row>
@@ -527,12 +527,12 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>48.0,60.0</t>
+          <t>60,60.0</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>18.5,47.5,</t>
+          <t>18.5,59.5,</t>
         </is>
       </c>
     </row>
@@ -559,11 +559,11 @@
         <v>100</v>
       </c>
       <c r="F4" t="n">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>27.0,</t>
+          <t>39.0,</t>
         </is>
       </c>
     </row>
@@ -591,12 +591,12 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>36.0,55.0</t>
+          <t>60,60.0</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>18.5,30.5,</t>
+          <t>18.5,59.5,</t>
         </is>
       </c>
     </row>
@@ -656,11 +656,11 @@
         <v>250</v>
       </c>
       <c r="F7" t="n">
-        <v>55.2</v>
+        <v>60</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>46.800000000000004,</t>
+          <t>51.6,</t>
         </is>
       </c>
     </row>
@@ -688,12 +688,12 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>40.8,60</t>
+          <t>60,60.0</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>17.999999999999996,49.2,</t>
+          <t>26.4,60.0,</t>
         </is>
       </c>
     </row>
@@ -754,12 +754,12 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>24.0,60.0,60</t>
+          <t>60,60,60</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>18.75,18.75,43.5,</t>
+          <t>18.75,38.25,60.0,</t>
         </is>
       </c>
     </row>
@@ -787,12 +787,12 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>36.0,61.0</t>
+          <t>60,60</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>18.5,36.5,</t>
+          <t>18.5,59.5,</t>
         </is>
       </c>
     </row>
